--- a/Documentation/counts_1or_fold1.xlsx
+++ b/Documentation/counts_1or_fold1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master DKE\WiSe18_19\TeamProject\DataFiles\Zain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master DKE\WiSe18_19\TeamProject\DataFiles\Zain\Transition Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>1_Scanning</t>
   </si>
@@ -36,7 +36,7 @@
     <t>5_Unknown</t>
   </si>
   <si>
-    <t>ScreenRecStarted</t>
+    <t>0_unstated</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,13 +91,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -407,7 +421,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +566,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
